--- a/data/OPenn-Zucker-test.xlsx
+++ b/data/OPenn-Zucker-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeryr/code/upenn-libraries/openn-genizah/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE9D81F3-E0AA-0545-98FE-7C4A997B9599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98EBF1D-1FEE-CD4F-A088-FDAEA19615A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13180" yWindow="7460" windowWidth="26440" windowHeight="15440" xr2:uid="{A32B0B02-12D6-6F4F-91E2-4E9B825F97FF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Call Number/ID</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>Ketubah, 1945.</t>
+  </si>
+  <si>
+    <t>KET Z69</t>
+  </si>
+  <si>
+    <t>ket_z_069</t>
+  </si>
+  <si>
+    <t>5618 Tevet 28 [1858 January 14]</t>
+  </si>
+  <si>
+    <t>66 x 47 cm. (26 x 18 1/2 in.)</t>
+  </si>
+  <si>
+    <t>1 sheet: ill.</t>
+  </si>
+  <si>
+    <t>Mosul, Iraq</t>
+  </si>
+  <si>
+    <t>Sassoon Library (London)|Zucker Family (RCZ) Collection</t>
+  </si>
+  <si>
+    <t>Ketubah, 1858.</t>
   </si>
 </sst>
 </file>
@@ -532,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EF007D-C361-AF4A-BF82-7CA837415CD4}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,6 +799,47 @@
         <v>51</v>
       </c>
     </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6">
+        <v>1858</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
